--- a/medicine/Psychotrope/Second_vin/Second_vin.xlsx
+++ b/medicine/Psychotrope/Second_vin/Second_vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un second vin est un type de vin. Il s'agit de la deuxième marque d'un domaine viticole, dans la même appellation que le vin principal (appelé « grand vin », « cru » ou « premier vin ») de ce domaine.
 Presque tous les châteaux classés du vignoble de Bordeaux proposent ce type de produit, portant un nom rappelant le vin principal. Un second vin ne doit pas être confondu avec un « deuxième cru classé », ce dernier faisant partie du classement de 1855.
@@ -512,10 +524,12 @@
           <t>Sélection de cuvées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un « second vin » est composé des cuvées qui ne sont pas jugées assez dignes pour entrer dans la composition du « premier vin ».
-La vinification se faisant dans plusieurs cuves, chacune correspond à une ou plusieurs parcelles différentes, se différenciant par l'âge des vignes, le cépage, le type de sol et de sous-sol, ainsi que l'exposition. Les différents vins produits sont ensuite assemblés en fonction de leurs qualités et des produits souhaités. Chaque domaine réalise sa sélection en fonction de ses propres critères, la plupart obtenant ainsi une gamme de quelques vins. Le vigneron, ou l'œnologue, peut ainsi écarter le jus fourni par les plus jeunes vignes, les parcelles manquant de maturité (par exemple le cabernet sauvignon a besoin de plus de temps que le merlot), les cuves ayant eu des problèmes lors de la fermentation, les vins de presse ou les excès de rendement (atteignant le maximum autorisé). Le vin élaboré avec ces cuvées aura donc moins de puissance, moins de complexité, moins de persistance en bouche et moins d'aptitude à la garde[1].
+La vinification se faisant dans plusieurs cuves, chacune correspond à une ou plusieurs parcelles différentes, se différenciant par l'âge des vignes, le cépage, le type de sol et de sous-sol, ainsi que l'exposition. Les différents vins produits sont ensuite assemblés en fonction de leurs qualités et des produits souhaités. Chaque domaine réalise sa sélection en fonction de ses propres critères, la plupart obtenant ainsi une gamme de quelques vins. Le vigneron, ou l'œnologue, peut ainsi écarter le jus fourni par les plus jeunes vignes, les parcelles manquant de maturité (par exemple le cabernet sauvignon a besoin de plus de temps que le merlot), les cuves ayant eu des problèmes lors de la fermentation, les vins de presse ou les excès de rendement (atteignant le maximum autorisé). Le vin élaboré avec ces cuvées aura donc moins de puissance, moins de complexité, moins de persistance en bouche et moins d'aptitude à la garde.
 Si le producteur peut faire déclasser cette partie de sa production viticole, c'est-à-dire en la vendant sous une appellation moins réputée, tel que l'AOP régionale (bordeaux par exemple) ou encore une IGP (les anciens vins de pays) voire un VSIG (les anciens vins de table) pour maintenir sa réputation, il peut aussi la vendre sous son appellation d'origine mais sous une autre marque. La solution classique est la vente en vrac de ces cuvées médiocres auprès du négoce, mais il est aussi possible de les valoriser comme « second vin », ou même comme « troisième vin » (une pratique plus rare).
 Une autre tendance dans la même optique de sélection qualitative, consiste à ne produire le « premier vin » que lorsque le millésime est exceptionnel, du moins que la qualité est suffisante pour le démarquer du second vin, qui lui est produit chaque année sans distinction. Dans le cas contraire, si la première cuvée n'est pas produite, la parcelle ou la cuve est assemblée avec le reste du second vin. La Cuvée des Cadettes du Château la Nerthe ou la cuvée Château Corton Grancey du domaine Louis Latour en sont des exemples.
 </t>
@@ -546,11 +560,13 @@
           <t>Qualité variable</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'évaluation de la qualité des seconds vins d'une façon globale est assez nuancée selon les auteurs. Les critiques voient souvent en nombre d'entre eux un fourre-tout médiocre, tandis que les commerciaux vantent leurs mérites. Selon ces derniers, les prix relativement réduits des seconds vins permettent de les voir comme une « initiation aux grands crus »[2] ; « une autre interprétation sur un même terroir », un « bon rapport qualité/prix »[3] ; des « grands crus à petit prix » ; « acquérir un second vin, c’est faire entrer dans sa cave un peu de la magie du grand cru … sans en payer le prix[1]. »
-Théoriquement, le savoir-faire et les techniques sont identiques entre un second vin et son premier, mais l'investissement est logiquement moindre. Certains seconds vins se démarquent par un style différent du grand vin, avec des assemblages un peu originaux pour l'appellation (des pauillacs riches en merlot par exemple)[4].
-Dans quelques cas, des parcelles spécifiques sont consacrées exclusivement au second vin : c'est le cas pour les Forts de Latour, la Croix de Beaucaillou, le Pavillon Rouge du Château Margaux, le Clos du Marquis, ou Moulin Riche du Château Léoville Poyferré[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évaluation de la qualité des seconds vins d'une façon globale est assez nuancée selon les auteurs. Les critiques voient souvent en nombre d'entre eux un fourre-tout médiocre, tandis que les commerciaux vantent leurs mérites. Selon ces derniers, les prix relativement réduits des seconds vins permettent de les voir comme une « initiation aux grands crus » ; « une autre interprétation sur un même terroir », un « bon rapport qualité/prix » ; des « grands crus à petit prix » ; « acquérir un second vin, c’est faire entrer dans sa cave un peu de la magie du grand cru … sans en payer le prix. »
+Théoriquement, le savoir-faire et les techniques sont identiques entre un second vin et son premier, mais l'investissement est logiquement moindre. Certains seconds vins se démarquent par un style différent du grand vin, avec des assemblages un peu originaux pour l'appellation (des pauillacs riches en merlot par exemple).
+Dans quelques cas, des parcelles spécifiques sont consacrées exclusivement au second vin : c'est le cas pour les Forts de Latour, la Croix de Beaucaillou, le Pavillon Rouge du Château Margaux, le Clos du Marquis, ou Moulin Riche du Château Léoville Poyferré.
 </t>
         </is>
       </c>
@@ -579,11 +595,13 @@
           <t>Mode nouvelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette habitude de faire un second vin est en fait assez nouvelle : elle s'est répandue dans le vignoble de Bordeaux pendant les années 1980 et 1990. Avant cette période, les seconds vins étaient rares, il s'agissait d'une pratique épisodique, lors des mauvaises années (pour maintenir le niveau de qualité du vin principal).
 La production du Clos du Marquis remonte à 1904 au Château Léoville Las Cases ; le Pavillon Rouge du Château Margaux apparaît en 1908, suivi par Latour puis Lafite. L'évident intérêt commercial pour les producteurs, voire spéculatif dans quelques cas, explique la quasi généralisation de la pratique parmi les crus classés du vignoble de Bordeaux.
-Quelques exemples existent hors de cette zone, se développant par imitation. Le vignoble de Bourgogne est très peu concerné, les producteurs préférant le déclassement (par exemple le Clos des Lambrays déclasse en morey-saint-denis premier cru Les Loups), mis à part pour le Château de Pommard (le Clos du Château) ou le nuit-saint-georges Clos de La Maréchale (le Clos des Fourches). Dans le vignoble de la vallée du Rhône, c'est le cas de l'hermitage La Chapelle, de Jaboulet (La Petite Chapelle, depuis 2001)[4].
+Quelques exemples existent hors de cette zone, se développant par imitation. Le vignoble de Bourgogne est très peu concerné, les producteurs préférant le déclassement (par exemple le Clos des Lambrays déclasse en morey-saint-denis premier cru Les Loups), mis à part pour le Château de Pommard (le Clos du Château) ou le nuit-saint-georges Clos de La Maréchale (le Clos des Fourches). Dans le vignoble de la vallée du Rhône, c'est le cas de l'hermitage La Chapelle, de Jaboulet (La Petite Chapelle, depuis 2001).
 </t>
         </is>
       </c>
@@ -614,10 +632,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vignoble de Bordeaux
-La majorité des crus classés du vignoble de Bordeaux propose un second vin ; la liste ci-dessous n'est pas exhaustive[6].
-Médoc et haut-médoc
-Appellation médoc :
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majorité des crus classés du vignoble de Bordeaux propose un second vin ; la liste ci-dessous n'est pas exhaustive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Médoc et haut-médoc</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellation médoc :
 Château Loudenne : Pavillon de Loudenne ; Les Tours de Loudenne
 Château Patache d'Aux : Le Relais de Patache d'Aux
 Château Potensac : Gallais Bellevue ; Château Lassalle
@@ -639,14 +701,91 @@
 Château du Moulin Rouge : L'Écuyer du Moulin Rouge
 Château Sociando-Mallet : La Demoiselle de Sociando-Mallet
 Château La Tour Carnet : Les Douves du Château La Tour Carnet ; Sire du Château La Tour
-Moulis
-Appellation moulis-en-médoc :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Moulis</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Appellation moulis-en-médoc :
 Château Brillette : Château Berthault-Brilette
 Château Chasse-Spleen : L'Ermitage de Chasse-Spleen
 Château Maucaillou : Château Cap-de-Haut de Maucaillou
-Château Poujeaux : La Salle de Château Poujeaux
-Saint-estèphe
-Appellation saint-Estèphe :
+Château Poujeaux : La Salle de Château Poujeaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Saint-estèphe</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellation saint-Estèphe :
 Château Le Boscq : Héritage de Le Boscq
 Château Calon-Ségur : Château Maquis de Calon
 Château Cos d'Estournel : Les Pagodes de Cos
@@ -656,8 +795,47 @@
 Château Meyney : Prieur de Meyney
 Château Montrose : La Dame de Montrose
 Château Phélan Ségur : Franck Phélan
-Pauillac
-Appellation pauillac :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pauillac</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellation pauillac :
 Château Colombier-Monpelou : Château Puy La Rose
 Château Croizet-Bages : La Tourelle de Croizet-Bages
 Château Duhart-Milon : Moulin de Duhart
@@ -668,14 +846,53 @@
 Château Lafite Rothschild : Carruades de Lafite Rothschild
 Château Latour : Les Forts de Latour ; le pauillac de Château Latour
 Château Lynch-Bages : Écho de Lynch-Bages
-Château Mouton Rothschild : Le Petit Mouton de Mouton Rothschild[7]
+Château Mouton Rothschild : Le Petit Mouton de Mouton Rothschild
 Château Pédesclaux : Lucien de Pédesclaux
 Château Pibran : Château Tour Pibran
 Château Pichon-Longueville Baron : Les Tourelles de Longueville ; Les Griffons de Pichon (depuis le millésime 2012)
 Château Pichon Longueville Comtesse de Lalande : Réserve de la Comtesse
 Château Pontet-Canet : Les Hauts de Pontet
-Saint-julien
-Appellation saint-julien :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Saint-julien</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellation saint-julien :
 Château Beychevelle : Amiral de Beychevelle
 Château Branaire-Ducru : Duluc de Branaire-Ducru (autrefois Château Duluc)
 Château Ducru-Beaucaillou : La Croix de Beaucaillou
@@ -685,10 +902,49 @@
 Château Langoa Barton : Lady Langoa
 Château Léoville Barton : La Réserve de Léoville Barton ; Lady Langoa
 Château Léoville Las Cases : Petit Lion de Léoville Las Cases
-Château Léoville Poyferré : Château Moulin Riche[8] ; Pavillon de Léoville Poyferré
+Château Léoville Poyferré : Château Moulin Riche ; Pavillon de Léoville Poyferré
 Château Talbot : Connétable Talbot
-Margaux
-Appellation margaux :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Margaux</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellation margaux :
 Château d'Angludet : La Ferme d'Angludet
 Château Boyd-Cantenac : Jacques Boyd
 Château Brane-Cantenac : Le Baron de Brane
@@ -714,8 +970,47 @@
 Château Rauzan-Ségla : Ségla
 Château Siran : S de Siran (ou Château Bellegarde)
 Château du Tertre : Les Hauts du Tertre
-Pessac-léognan et graves
-Appellation pessac-léognan :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pessac-léognan et graves</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Appellation pessac-léognan :
 Château Bouscaut : La Flamme de Bouscaut (rouge) ; Lamothe Bouscaut (blanc)
 Château Brown : Le Colombier de Château Brown
 Château Carbonnieux : Château Tour Léognan
@@ -737,9 +1032,47 @@
 Château Pape Clément : Le Clémentin du Château Pape Clément
 Château Smith Haut Lafitte : Les Hauts de Smith
 Appellation graves :
-Château Rahoul : La Garance
-Barsac et sauternes
-Appellation barsac :
+Château Rahoul : La Garance</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Barsac et sauternes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellation barsac :
 Château Climens : Les Cyprès de Climens
 Château Coutet : La Chartreuse de Coutet
 Appellation sauternes :
@@ -758,9 +1091,48 @@
 Château Sigalas-Rabaud : Le Cadet de Sigalas
 Château Suduiraut : Castelnau de Suduiraut
 Château La Tour Blanche : Les Charmilles de Tour Blanche
-Château d'Yquem : Y d'Yquem[9]
-Saint-émilion
-Appellations saint-émilion et saint-émilion grand cru :
+Château d'Yquem : Y d'Yquem
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Saint-émilion</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellations saint-émilion et saint-émilion grand cru :
 Château Angélus : Le Carillon d'Angélus
 Château Armens : La Fleur du Château Armens
 Château Ausone : Chapelle d'Ausone
@@ -800,7 +1172,7 @@
 Château Magdelaine : Les Songes de Magdelaine
 Château Milens : Tour du Sème
 Château Monbousquet (en) : Angélique de Monbousquet
-Château Pavie : Arômes de Pavie[10]
+Château Pavie : Arômes de Pavie
 Château Pavie-Macquin : Les Chênes de Macquin
 Château Roylland : Château Rocheyron
 Château Sansonnet : Château Lasalle
@@ -810,8 +1182,47 @@
 Château Troplong-Mondot : Mondot
 Château Trottevieille : La Vieille Dame de Trotte Vieille
 Château Valandraud (en) : Virginie de Valandraud
-Pomerol
-Appellation pomerol :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vignoble de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pomerol</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appellation pomerol :
 Château Beauregard (en) : Le Benjamin de Beauregard
 Château Bellegrave : Château des Jacobins
 Château Bonalgue : Château Burgrave
@@ -839,40 +1250,80 @@
 Château de Sales : Château Chantalouette
 Château Taillefer : Château Fontmarty
 Vieux Château Certan (en) : La Gravette de Certan
-Vignoble de la Vallée du Rhône
-Château la Nerthe : La Nerthe (second vin), Les cadettes de la Nerthe (troisième vin)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exemples de seconds vins français</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vignoble de la Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Château la Nerthe : La Nerthe (second vin), Les cadettes de la Nerthe (troisième vin)
 Jaboulet : La Petite Chapelle</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Second_vin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Second_vin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_vin</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Exemples de seconds vins de vignobles étrangers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Nouvelle-Zélande
-Amisfield : toutes les cuvées Lakes Hayes
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Amisfield : toutes les cuvées Lakes Hayes
 Saint Clair Winery : toutes les cuvées Pioneer Block</t>
         </is>
       </c>
